--- a/genertate-sql/src/main/resources/resource.xlsx
+++ b/genertate-sql/src/main/resources/resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22880"/>
+    <workbookView windowWidth="30351" windowHeight="11451"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+  <si>
+    <t>表名</t>
   </si>
   <si>
     <t>词条字段</t>
@@ -28,6 +28,9 @@
     <t>条件</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>bill_base</t>
   </si>
   <si>
@@ -37,8 +40,199 @@
     <t>cName_resid</t>
   </si>
   <si>
-    <t xml:space="preserve">tenant_id = '0' AND isDeleted = 0 AND sysid IS NULL and cName is not null
-</t>
+    <t xml:space="preserve">tenant_id = '0' AND isDeleted = 0 AND sysid IS NULL </t>
+  </si>
+  <si>
+    <t>单据名称，用于UI模板管理四级节点展示</t>
+  </si>
+  <si>
+    <t>billtemplate_base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_id = '0' and ibillid in (select id from  bill_base where tenant_id = '0' AND isDeleted = 0 AND sysid IS NULL) </t>
+  </si>
+  <si>
+    <t>模板名称，用于UI模板管理界面模板名称展示</t>
+  </si>
+  <si>
+    <t>cTitle</t>
+  </si>
+  <si>
+    <t>cTitle_resid</t>
+  </si>
+  <si>
+    <t>模板标题，前端使用</t>
+  </si>
+  <si>
+    <t>billtplgroup_base</t>
+  </si>
+  <si>
+    <t>容器名称，用于UI模板管理tab页签，前端部分展示tab页签名称</t>
+  </si>
+  <si>
+    <t>billentity_base</t>
+  </si>
+  <si>
+    <t>实体名称</t>
+  </si>
+  <si>
+    <t>billitem_base</t>
+  </si>
+  <si>
+    <t>cCaption</t>
+  </si>
+  <si>
+    <t>cCaption_resid</t>
+  </si>
+  <si>
+    <t>控件出厂预制名称</t>
+  </si>
+  <si>
+    <t>cShowCaption</t>
+  </si>
+  <si>
+    <t>cShowCaption_resid</t>
+  </si>
+  <si>
+    <t>控件显示名称</t>
+  </si>
+  <si>
+    <t>bill_toolbaritem</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>text_resid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_id ='0'and billnumber in (select cBillNo from  bill_base where tenant_id ='0'AND isDeleted = 0 AND sysid IS NULL) </t>
+  </si>
+  <si>
+    <t>按钮显示名称</t>
+  </si>
+  <si>
+    <t>pb_filter_solution</t>
+  </si>
+  <si>
+    <t>solutionName</t>
+  </si>
+  <si>
+    <t>solutionName_resid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_id ='0' and filtersid in (select cfilterid from  bill_base where tenant_id ='0'AND isDeleted = 0 AND sysid IS NULL) </t>
+  </si>
+  <si>
+    <t>查询方案显示名称</t>
+  </si>
+  <si>
+    <t>pb_filter_solution_common</t>
+  </si>
+  <si>
+    <t>itemTitle</t>
+  </si>
+  <si>
+    <t>itemTitle_resid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_id ='0' and solutionid in (select id from pb_filter_solution where tenant_id = '0' and  filtersid in (select cfilterid from  bill_base where tenant_id ='0'AND isDeleted = 0 AND sysid IS NULL)) </t>
+  </si>
+  <si>
+    <t>查询方案下查询控件显示名称</t>
+  </si>
+  <si>
+    <t>pb_meta_filter_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtersid in (select cfilterid from  bill_base where tenant_id ='0'AND isDeleted = 0 AND sysid IS NULL) </t>
+  </si>
+  <si>
+    <t>查询模型数据扩展字段</t>
+  </si>
+  <si>
+    <t>aa_enum</t>
+  </si>
+  <si>
+    <t>enumname</t>
+  </si>
+  <si>
+    <t>enumname_resid</t>
+  </si>
+  <si>
+    <t>枚举项名称，用于页面option展示</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>description_resid</t>
+  </si>
+  <si>
+    <t>枚举类型名称，用于关联枚举类型选值使用（自定义过滤条件）</t>
+  </si>
+  <si>
+    <t>pub_ref</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name_resid</t>
+  </si>
+  <si>
+    <t>参照名称（选参照使用）</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>权限页面使用的按钮名称多语</t>
+  </si>
+  <si>
+    <t>rpt_groupschema</t>
+  </si>
+  <si>
+    <t>报表分组名称</t>
+  </si>
+  <si>
+    <t>rpt_groupitem</t>
+  </si>
+  <si>
+    <t>showCaption</t>
+  </si>
+  <si>
+    <t>showCaption_resid</t>
+  </si>
+  <si>
+    <t>报表项展示名称</t>
+  </si>
+  <si>
+    <t>pub_option_group</t>
+  </si>
+  <si>
+    <t>参数页面多语</t>
+  </si>
+  <si>
+    <t>pub_option_meta</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>caption_resid</t>
+  </si>
+  <si>
+    <t>rangeDescrible</t>
+  </si>
+  <si>
+    <t>rangeDescrible_resid</t>
+  </si>
+  <si>
+    <t>bill_command</t>
+  </si>
+  <si>
+    <t>操作日志操作按钮多语</t>
   </si>
 </sst>
 </file>
@@ -46,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +261,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -75,18 +306,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,112 +346,59 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,7 +407,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,181 +533,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,20 +628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +658,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,17 +687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,217 +714,237 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1004,46 +1213,380 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.6428571428571" customWidth="1"/>
-    <col min="2" max="2" width="14.3392857142857" customWidth="1"/>
-    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="55.0535714285714" customWidth="1"/>
+    <col min="1" max="1" width="28.5585585585586" customWidth="1"/>
+    <col min="2" max="2" width="14.3423423423423" customWidth="1"/>
+    <col min="3" max="3" width="20.7117117117117" customWidth="1"/>
+    <col min="4" max="4" width="60.5855855855856" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.7117117117117" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.15" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="72" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" ht="14.15" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="42.45" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="42.45" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="56.55" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="28.3" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
